--- a/Outputs/4. Prosumer percentage constrained/Summary.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Summary.xlsx
@@ -1726,10 +1726,10 @@
         <v>2745209.194653912</v>
       </c>
       <c r="AN5" t="n">
-        <v>2745797.247411537</v>
+        <v>2745684.532735989</v>
       </c>
       <c r="AO5" t="n">
-        <v>2746085.920156586</v>
+        <v>2745974.902402562</v>
       </c>
     </row>
   </sheetData>
@@ -2127,10 +2127,10 @@
         <v>0.1331149697507499</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1708775188742777</v>
+        <v>0.1727656463304541</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2082712931040211</v>
+        <v>0.212009748589761</v>
       </c>
     </row>
     <row r="4">
@@ -2140,124 +2140,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="C4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="D4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="E4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="F4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="G4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="H4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="I4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="J4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="K4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="L4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="M4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="N4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="O4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="P4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="Q4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="R4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="S4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="T4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="U4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="V4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="W4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="X4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="Y4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="Z4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AA4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AB4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AC4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AD4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AE4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AF4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AG4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AH4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AI4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AK4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AL4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AM4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AN4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AO4" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
     </row>
     <row r="5">
@@ -2267,124 +2267,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="C5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="D5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="E5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="F5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="G5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="H5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="I5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="J5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="K5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="L5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="M5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="N5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="O5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="P5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="Q5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="R5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="S5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="T5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="U5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="V5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="W5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="X5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="Y5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="Z5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AA5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AB5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AC5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AD5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AE5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AF5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AG5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AH5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AI5" t="n">
-        <v>2491799.416823825</v>
+        <v>2491799.416823826</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2499998.500910677</v>
+        <v>2499744.466589225</v>
       </c>
       <c r="AK5" t="n">
-        <v>2496647.915662776</v>
+        <v>2496391.360715842</v>
       </c>
       <c r="AL5" t="n">
-        <v>2495118.910264546</v>
+        <v>2494862.355317614</v>
       </c>
       <c r="AM5" t="n">
-        <v>2497351.859237067</v>
+        <v>2497129.793906786</v>
       </c>
       <c r="AN5" t="n">
-        <v>2503254.893568969</v>
+        <v>2494363.523804277</v>
       </c>
       <c r="AO5" t="n">
-        <v>2512193.744702816</v>
+        <v>2494868.980057614</v>
       </c>
     </row>
   </sheetData>
@@ -2761,31 +2761,31 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.017578125</v>
+        <v>0.0185546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.04091262817382812</v>
+        <v>0.04188346862792969</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0641104057431221</v>
+        <v>0.06507555767893791</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08717225883447099</v>
+        <v>0.09005310540851497</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1100989838803628</v>
+        <v>0.1148721042511367</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1404888355687974</v>
+        <v>0.1414305957259824</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1631031587978865</v>
+        <v>0.1659234679210811</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1855849762268051</v>
+        <v>0.1921329754645894</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2191101082716867</v>
+        <v>0.2218819365937723</v>
       </c>
     </row>
     <row r="4">
@@ -2795,124 +2795,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="C4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="D4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="E4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="F4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="G4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="H4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="I4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="J4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="K4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="L4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="M4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="N4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="O4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="P4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="Q4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="R4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="S4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="T4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="U4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="V4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="W4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="X4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="Y4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="Z4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AA4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AB4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AC4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AD4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AE4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AF4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AG4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AH4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AI4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AK4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AL4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AM4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AN4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AO4" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
     </row>
     <row r="5">
@@ -2922,124 +2922,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="C5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="D5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="E5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="F5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="G5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="H5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="I5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="J5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="K5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="L5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="M5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="N5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="O5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="P5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="Q5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="R5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="S5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="T5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="U5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="V5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="W5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="X5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="Y5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="Z5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AA5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AB5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AC5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AD5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AE5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AF5" t="n">
-        <v>2229467.036443321</v>
+        <v>2229467.03644332</v>
       </c>
       <c r="AG5" t="n">
-        <v>2242817.62901489</v>
+        <v>2235206.2111577</v>
       </c>
       <c r="AH5" t="n">
-        <v>2238227.583176118</v>
+        <v>2231137.01986902</v>
       </c>
       <c r="AI5" t="n">
-        <v>2243859.727421317</v>
+        <v>2237077.972495075</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2256115.204357062</v>
+        <v>2236641.832004368</v>
       </c>
       <c r="AK5" t="n">
-        <v>2270514.609645876</v>
+        <v>2238643.899160659</v>
       </c>
       <c r="AL5" t="n">
-        <v>2236762.790515366</v>
+        <v>2230219.986103521</v>
       </c>
       <c r="AM5" t="n">
-        <v>2254781.651350346</v>
+        <v>2236073.804305393</v>
       </c>
       <c r="AN5" t="n">
-        <v>2274808.098610967</v>
+        <v>2234418.815609979</v>
       </c>
       <c r="AO5" t="n">
-        <v>2247069.937576478</v>
+        <v>2231785.586793358</v>
       </c>
     </row>
   </sheetData>
@@ -3425,22 +3425,22 @@
         <v>0.08999608394351345</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.109087899939883</v>
+        <v>0.1100424907397015</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1280864941784578</v>
+        <v>0.1309358172054551</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1507734873766309</v>
+        <v>0.1517169236560117</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1733275489740334</v>
+        <v>0.1733259350710292</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1957494578667637</v>
+        <v>0.1976163466159885</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2254701652271796</v>
+        <v>0.2254658362647972</v>
       </c>
     </row>
     <row r="4">
@@ -3661,40 +3661,40 @@
         <v>2053877.463118202</v>
       </c>
       <c r="AD5" t="n">
-        <v>2060528.294634293</v>
+        <v>2060453.997695409</v>
       </c>
       <c r="AE5" t="n">
-        <v>2059301.976522067</v>
+        <v>2059227.679583183</v>
       </c>
       <c r="AF5" t="n">
-        <v>2059735.237358985</v>
+        <v>2059628.245305352</v>
       </c>
       <c r="AG5" t="n">
-        <v>2061011.021085898</v>
+        <v>2060704.084640141</v>
       </c>
       <c r="AH5" t="n">
-        <v>2057327.188847098</v>
+        <v>2056987.220840825</v>
       </c>
       <c r="AI5" t="n">
-        <v>2058953.71565073</v>
+        <v>2058511.423032954</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2068061.780256157</v>
+        <v>2060226.961081401</v>
       </c>
       <c r="AK5" t="n">
-        <v>2081401.043738553</v>
+        <v>2059388.598912087</v>
       </c>
       <c r="AL5" t="n">
-        <v>2068941.757321471</v>
+        <v>2061476.293953726</v>
       </c>
       <c r="AM5" t="n">
-        <v>2060874.044934422</v>
+        <v>2060471.691996059</v>
       </c>
       <c r="AN5" t="n">
-        <v>2071435.596963086</v>
+        <v>2059765.857231691</v>
       </c>
       <c r="AO5" t="n">
-        <v>2058168.378488695</v>
+        <v>2057888.147991887</v>
       </c>
     </row>
   </sheetData>
@@ -4059,43 +4059,43 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0078125</v>
+        <v>0.0087890625</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.023406982421875</v>
+        <v>0.02340531349182129</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03117376565933228</v>
+        <v>0.03796803817385808</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05055280000669882</v>
+        <v>0.05247743256531123</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.06694454863948351</v>
+        <v>0.06693369196753787</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.08230804649636053</v>
+        <v>0.08229723223328969</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.09856799845181996</v>
+        <v>0.09855722907216521</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1176179593968794</v>
+        <v>0.1176072426020863</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1365749029545119</v>
+        <v>0.1365642384878183</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1554392833111793</v>
+        <v>0.1563718925385399</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1779660062605278</v>
+        <v>0.1779547652122737</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.200360736692595</v>
+        <v>0.2022157945346567</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2300454184371841</v>
+        <v>0.2318859836398547</v>
       </c>
     </row>
     <row r="4">
@@ -4313,43 +4313,43 @@
         <v>1878287.889793084</v>
       </c>
       <c r="AC5" t="n">
-        <v>1892041.701170314</v>
+        <v>1881920.032101488</v>
       </c>
       <c r="AD5" t="n">
-        <v>1880376.260671615</v>
+        <v>1880262.14652041</v>
       </c>
       <c r="AE5" t="n">
-        <v>1948790.162402161</v>
+        <v>1879151.848624874</v>
       </c>
       <c r="AF5" t="n">
-        <v>1899336.572824563</v>
+        <v>1879605.658368503</v>
       </c>
       <c r="AG5" t="n">
-        <v>1881262.38637303</v>
+        <v>1881217.914349179</v>
       </c>
       <c r="AH5" t="n">
-        <v>1883446.043917319</v>
+        <v>1883129.929449236</v>
       </c>
       <c r="AI5" t="n">
-        <v>1885904.214486883</v>
+        <v>1885450.440923014</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1880432.761933506</v>
+        <v>1879943.081932538</v>
       </c>
       <c r="AK5" t="n">
-        <v>1882871.565779538</v>
+        <v>1882370.252190658</v>
       </c>
       <c r="AL5" t="n">
-        <v>1892229.803228367</v>
+        <v>1884961.798325988</v>
       </c>
       <c r="AM5" t="n">
-        <v>1884530.324789041</v>
+        <v>1884163.893231504</v>
       </c>
       <c r="AN5" t="n">
-        <v>1891461.177031857</v>
+        <v>1880288.520024406</v>
       </c>
       <c r="AO5" t="n">
-        <v>1885515.718926255</v>
+        <v>1882079.279780987</v>
       </c>
     </row>
   </sheetData>
@@ -4711,43 +4711,43 @@
         <v>0.001953125</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.009761810302734375</v>
+        <v>0.01464223861694336</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02729703672230244</v>
+        <v>0.0282640669029206</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03505622219745419</v>
+        <v>0.04086967411245723</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05248029153350053</v>
+        <v>0.05343527329129953</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06019029096409917</v>
+        <v>0.06596099141806053</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07750390784951086</v>
+        <v>0.07844695506834501</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.08516503302949228</v>
+        <v>0.09185070082738875</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.104280438141653</v>
+        <v>0.1052086330022951</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1214002994974758</v>
+        <v>0.1223244153767968</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1403387745975857</v>
+        <v>0.1393649819107855</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.159184776674746</v>
+        <v>0.1591582766812624</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1816895533739173</v>
+        <v>0.1816632086538332</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.204062466147117</v>
+        <v>0.2059006980520267</v>
       </c>
     </row>
     <row r="4">
@@ -4757,121 +4757,121 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="C4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="D4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="E4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="F4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="G4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="H4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="I4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="J4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="K4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="L4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="M4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="N4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="O4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="P4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="Q4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="R4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="S4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="T4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="U4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="V4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="W4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="X4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="Y4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="Z4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AA4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AB4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AC4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AD4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AE4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AF4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AG4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AH4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AI4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AK4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AL4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AM4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AN4" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
     </row>
     <row r="5">
@@ -4881,121 +4881,121 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="C5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="D5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="E5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="F5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="G5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="H5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="I5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="J5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="K5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="L5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="M5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="N5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="O5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="P5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="Q5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="R5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="S5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="T5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="U5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="V5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="W5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="X5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="Y5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="Z5" t="n">
-        <v>1611371.492515084</v>
+        <v>1611371.492515085</v>
       </c>
       <c r="AA5" t="n">
-        <v>1620967.266541657</v>
+        <v>1620643.11641113</v>
       </c>
       <c r="AB5" t="n">
-        <v>1672965.212694327</v>
+        <v>1621185.152175268</v>
       </c>
       <c r="AC5" t="n">
-        <v>1622440.927671383</v>
+        <v>1611920.562356311</v>
       </c>
       <c r="AD5" t="n">
-        <v>1674985.870105385</v>
+        <v>1613383.816570059</v>
       </c>
       <c r="AE5" t="n">
-        <v>1625662.132691646</v>
+        <v>1615268.758755312</v>
       </c>
       <c r="AF5" t="n">
-        <v>1678725.500126679</v>
+        <v>1617574.050546928</v>
       </c>
       <c r="AG5" t="n">
-        <v>1630614.181543711</v>
+        <v>1620359.343110615</v>
       </c>
       <c r="AH5" t="n">
-        <v>1684294.927840405</v>
+        <v>1614086.26465405</v>
       </c>
       <c r="AI5" t="n">
-        <v>1624564.362811598</v>
+        <v>1615675.951162333</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1622789.922356097</v>
+        <v>1615102.268992937</v>
       </c>
       <c r="AK5" t="n">
-        <v>1613155.532677355</v>
+        <v>1619802.757736786</v>
       </c>
       <c r="AL5" t="n">
-        <v>1617765.340452774</v>
+        <v>1617295.030622352</v>
       </c>
       <c r="AM5" t="n">
-        <v>1612422.5843756</v>
+        <v>1612113.555565778</v>
       </c>
       <c r="AN5" t="n">
-        <v>1626174.89094127</v>
+        <v>1616219.896246004</v>
       </c>
     </row>
   </sheetData>
@@ -5351,49 +5351,49 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001953125</v>
+        <v>0.0009765625</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.009761810302734375</v>
+        <v>0.01269245147705078</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01755524426698685</v>
+        <v>0.02437401656061411</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03505622219745419</v>
+        <v>0.03602135830897168</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.04280025301347479</v>
+        <v>0.04860234520886997</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06019029096409917</v>
+        <v>0.06017870552564086</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06788523180205991</v>
+        <v>0.0717211507242962</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.08324505511533312</v>
+        <v>0.08322978016553362</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.09089496711706098</v>
+        <v>0.09566093564840666</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1080736513435973</v>
+        <v>0.1080526367803819</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1251768433054663</v>
+        <v>0.1251559210914056</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1422048747557841</v>
+        <v>0.1431300513402492</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1610417650157656</v>
+        <v>0.1619624241364394</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1835356609238764</v>
+        <v>0.1844509255575149</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.2133517885729086</v>
+        <v>0.2123968416300917</v>
       </c>
     </row>
     <row r="4">
@@ -5599,49 +5599,49 @@
         <v>1343031.406346168</v>
       </c>
       <c r="Z5" t="n">
-        <v>1343144.309183853</v>
+        <v>1352808.862789171</v>
       </c>
       <c r="AA5" t="n">
-        <v>1382768.012478013</v>
+        <v>1352398.2906254</v>
       </c>
       <c r="AB5" t="n">
-        <v>1422547.985149657</v>
+        <v>1352339.410444234</v>
       </c>
       <c r="AC5" t="n">
-        <v>1362861.812322391</v>
+        <v>1352631.191898069</v>
       </c>
       <c r="AD5" t="n">
-        <v>1403147.983137175</v>
+        <v>1343356.590257406</v>
       </c>
       <c r="AE5" t="n">
-        <v>1344598.531628411</v>
+        <v>1344375.666836196</v>
       </c>
       <c r="AF5" t="n">
-        <v>1385387.691759259</v>
+        <v>1345745.37141487</v>
       </c>
       <c r="AG5" t="n">
-        <v>1349416.122585316</v>
+        <v>1349160.567227951</v>
       </c>
       <c r="AH5" t="n">
-        <v>1393578.161817234</v>
+        <v>1346130.590198102</v>
       </c>
       <c r="AI5" t="n">
-        <v>1345352.869315499</v>
+        <v>1344856.52539296</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1348283.883058605</v>
+        <v>1347697.937036505</v>
       </c>
       <c r="AK5" t="n">
-        <v>1354240.229211762</v>
+        <v>1347464.86842573</v>
       </c>
       <c r="AL5" t="n">
-        <v>1353431.81680372</v>
+        <v>1347113.033692885</v>
       </c>
       <c r="AM5" t="n">
-        <v>1348722.871507692</v>
+        <v>1343529.118970061</v>
       </c>
       <c r="AN5" t="n">
-        <v>1344173.493184309</v>
+        <v>1347269.852774157</v>
       </c>
     </row>
   </sheetData>
@@ -5997,49 +5997,49 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00390625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01171112060546875</v>
+        <v>0.01561188697814941</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02729037404060364</v>
+        <v>0.02728489902801812</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03504957252880558</v>
+        <v>0.03892371280039697</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.04279361633246026</v>
+        <v>0.04956136884512247</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06018368344818675</v>
+        <v>0.06113491952233402</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06787863719145201</v>
+        <v>0.07267456331279593</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.08419847683201481</v>
+        <v>0.08418039955309048</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.09184652668195228</v>
+        <v>0.09660853793341515</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1090210292502445</v>
+        <v>0.1089972315386069</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1261200579302971</v>
+        <v>0.126096364798447</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1450354873349343</v>
+        <v>0.1450119098922046</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1638585562444317</v>
+        <v>0.1638350939259341</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1825897156377695</v>
+        <v>0.1844394952769179</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.2198691129459944</v>
+        <v>0.2179746950254606</v>
       </c>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
@@ -6249,49 +6249,49 @@
         <v>1161943.262425547</v>
       </c>
       <c r="Z5" t="n">
-        <v>1174829.864909614</v>
+        <v>1164992.173991736</v>
       </c>
       <c r="AA5" t="n">
-        <v>1208329.255431854</v>
+        <v>1170039.570949922</v>
       </c>
       <c r="AB5" t="n">
-        <v>1166185.25723531</v>
+        <v>1165902.620001883</v>
       </c>
       <c r="AC5" t="n">
-        <v>1200129.029491215</v>
+        <v>1162082.696426476</v>
       </c>
       <c r="AD5" t="n">
-        <v>1234495.560750035</v>
+        <v>1168370.244328117</v>
       </c>
       <c r="AE5" t="n">
-        <v>1175236.014753845</v>
+        <v>1165600.580905545</v>
       </c>
       <c r="AF5" t="n">
-        <v>1211755.372565522</v>
+        <v>1165111.936624956</v>
       </c>
       <c r="AG5" t="n">
-        <v>1165836.177964049</v>
+        <v>1165496.691475957</v>
       </c>
       <c r="AH5" t="n">
-        <v>1208288.079477398</v>
+        <v>1165065.876781151</v>
       </c>
       <c r="AI5" t="n">
-        <v>1166345.837415019</v>
+        <v>1165946.995502071</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1170269.185374427</v>
+        <v>1169629.381410159</v>
       </c>
       <c r="AK5" t="n">
-        <v>1165948.185810014</v>
+        <v>1165305.495938775</v>
       </c>
       <c r="AL5" t="n">
-        <v>1163958.764685201</v>
+        <v>1163365.284187205</v>
       </c>
       <c r="AM5" t="n">
-        <v>1178409.433485643</v>
+        <v>1169001.467610072</v>
       </c>
       <c r="AN5" t="n">
-        <v>1164648.293709702</v>
+        <v>1169213.880544128</v>
       </c>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
